--- a/manual/architecture/會員管理甘特圖.xlsx
+++ b/manual/architecture/會員管理甘特圖.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpecialTopic\manual\architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecialTopic\manual\architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702E8AA0-0B88-4542-9DFE-57B996DB52A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{88412BAE-C1A2-4C31-A3A6-494EE30C3F4A}"/>
+    <workbookView xWindow="5160" yWindow="2610" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -414,6 +413,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -421,7 +421,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1005,16 +1004,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1338,11 +1337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58881E8-A01C-4AF2-BCDB-1CE7858871DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
